--- a/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T100.xlsx
+++ b/Take Home/Tables/1__Selected Lags All Criteria_a110.5_T100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
     </row>
@@ -468,24 +471,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -496,24 +502,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -524,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -542,6 +551,9 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -552,13 +564,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -570,6 +582,9 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
